--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1317728.843992372</v>
+        <v>1295366.812581717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855588</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10189943.19389979</v>
+        <v>11248921.90017855</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481182</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>117.339905340422</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>127.5003019127617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553051</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250822</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229338</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.2634979541054</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>313.4020972507757</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>377.96551555384</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250822</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229338</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>73.31370764131889</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>107.0735227013103</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>74.57736577166648</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>115.526976800218</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>104.639006788286</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>277.5948985960645</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.3487992709492</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>227.9017882635713</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.9557483937991</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>88.99177052521325</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8933087008745</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.30807445899548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>102.1274204128029</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.58923446922638</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>49.90082807782687</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>100.8744262095864</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961698</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>110.5676847300046</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>101.1426547140132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>983.6384645338385</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>983.6384645338385</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.69155979125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548713</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548713</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520776</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158868</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815297</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545183</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284103</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.6384645338385</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170807</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359537</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747024</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692469</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961319</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423981</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.9429818203644</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614628</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571344</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014716</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430045</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073961</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.88420019674</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.71457616758</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935837</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207635</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002103</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237149</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.9429818203644</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>53.9429818203644</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>53.9429818203644</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E4" t="n">
-        <v>53.9429818203644</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F4" t="n">
-        <v>53.9429818203644</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G4" t="n">
-        <v>53.9429818203644</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="H4" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.9429818203644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477907</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658206</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931981</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.9429818203644</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.9429818203644</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.9429818203644</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.9429818203644</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.9429818203644</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1327.372931623162</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1327.372931623162</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.372931623162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1327.372931623162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>916.387026833555</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.6036777892721</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332391</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304454</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942545</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598974</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598974</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598974</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.372931623162</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027642008</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598724</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417903</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064336</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064336</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240405</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658206</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,28 +4904,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.530907664846</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>1167.568390724434</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>809.3026921176836</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>809.3026921176836</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>809.3026921176836</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.9120654066</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331026</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331026</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331026</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.259083834393</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>3370.567380579544</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3039.504493235973</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>2686.735837965859</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>2313.270079704779</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>1923.130747728967</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662052</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>141.599614789977</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>346.44509241223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>986.990441879334</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132116</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884838</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>671.4854326121931</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>502.5492496842862</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>502.5492496842862</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>502.5492496842862</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>396.8532832314721</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662052</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y13" t="n">
-        <v>853.1338974424328</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2196.616170759897</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>1827.653653819485</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1469.387955212735</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1083.599702614491</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>672.6137978248832</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3346.821101060911</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2973.355342799831</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2583.216010824019</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893252</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266205</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266205</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>848.2972798983279</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266205</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266205</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266205</v>
+        <v>898.7925182488389</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>659.373105721172</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113633</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1757.603879777666</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.143944996363</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1409.025593259707</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1185.240178049213</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1185.240178049213</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1185.240178049213</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>895.8230080122524</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8334571142351</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1289.933130456009</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>1035.248642250122</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,34 +6211,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1284.682156601745</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488382</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="V28" t="n">
-        <v>644.1080300429513</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W28" t="n">
-        <v>644.1080300429513</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X28" t="n">
-        <v>644.1080300429513</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.3154508994212</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6448,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.048587976198</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>760.7169704793943</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1397.022910750239</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1173.237495539745</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4458.413529040522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4289.477346112615</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4139.360706700279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3991.447613117886</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3844.557665619976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3676.382343939797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3525.96433548774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014291</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014291</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014291</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>4860.854573014291</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>4640.061993870761</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507268</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507268</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507268</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507268</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507268</v>
+        <v>643.4986034508183</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507268</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507268</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.3109288932102</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3747459653033</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529675</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1396.75197286698</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1175.95939372345</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270202</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719099</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>68.29886828945422</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,22 +9014,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264079</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>87.16935584025424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>258.7376367432919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22643,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.458477865729947e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853706</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491438</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>56.01837628787237</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35.81865446695497</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481182</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>82.85718120047626</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853706</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491438</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>138.0744973432996</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>64.30500338171929</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>40.78204123464523</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>160.4831809109881</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>58.35886639452565</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.29107270482878</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>108.92903945839</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>79.34404369770283</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.83138328065138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.5239057229418</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>95.7933895708003</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.2427457127109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>117.345993020801</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>97.04638377401685</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>44.27839330891752</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024076</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>175.9553136065864</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720539.9926437236</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720539.9926437236</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720539.9926437237</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834666.8331522865</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834666.8331522862</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173332</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173333</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626559</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114797</v>
@@ -26352,7 +26352,7 @@
         <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145438</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.793916670882026e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188428</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659103</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965298</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496503</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>27086.83710496505</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360138</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381845.9233655852</v>
+        <v>-386886.8516391224</v>
       </c>
       <c r="C6" t="n">
-        <v>208121.9558489588</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="D6" t="n">
-        <v>208121.9558489584</v>
+        <v>203081.027575422</v>
       </c>
       <c r="E6" t="n">
-        <v>29450.12341659536</v>
+        <v>-210164.5955607256</v>
       </c>
       <c r="F6" t="n">
-        <v>277596.892035438</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="G6" t="n">
-        <v>52207.14290998218</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832998</v>
+        <v>138572.2217235777</v>
       </c>
       <c r="K6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="L6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="M6" t="n">
-        <v>253516.9762862394</v>
+        <v>180194.4256823335</v>
       </c>
       <c r="N6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161706</v>
       </c>
       <c r="O6" t="n">
-        <v>246105.1473259813</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="P6" t="n">
-        <v>315970.0321758925</v>
+        <v>314995.4409161708</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827565</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209769</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160366</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>99.10841501723583</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>54.3902011122461</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>69.33174441270489</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>67.34219010766122</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633786</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473545</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.81250524001411</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188905</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890686</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372661</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078602</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644434</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492002</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302229</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175832</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678001</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.91048397019722</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633786</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473545</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.81250524001411</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188905</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890686</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372661</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078602</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644434</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492002</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302229</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175832</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678001</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.91048397019722</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031296</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730622</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713944</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.407091862461</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713944</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268336</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>206.9146238608616</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122262</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747238</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>294.2627707717789</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295366.812581717</v>
+        <v>1313482.526123279</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>3522967.675855585</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11248921.90017855</v>
+        <v>10189943.19389979</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>117.339905340422</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>156.1271626621471</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.4020972507757</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>84.11892151122089</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>78.08759758434296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>107.0735227013103</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>113.0940561474153</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586862</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>273.468781111545</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>106.2393753097583</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>52.23166108617883</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.3487992709492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>68.0098286407941</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9557483937991</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.9808704704261</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>206.8933087008745</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>102.1274204128029</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100.8744262095864</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>77.8682875383153</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>110.5676847300046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8385935972305</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2347.417756953369</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2093.65597159146</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1762.593084247889</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
         <v>1780.41262192169</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1705.823007113086</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1705.823007113086</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1347.557308506335</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>961.7690559080911</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>550.7831511184836</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>132.8193430166705</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.965328113049</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2533.965328113049</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2280.203542751141</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1949.14065540757</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.372000137456</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1222.906241876376</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,28 +4904,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>304.5083130726407</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>304.5083130726407</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>2762.06651046249</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>2388.600752201411</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2112.369660169547</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>141.5996147899769</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>645.9611546560947</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1286.506504123198</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>966.6139762730753</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>797.6777933451684</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>647.5611539328327</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>499.6480603504396</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>966.6139762730753</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201021</v>
+        <v>966.6139762730753</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>1597.994168061634</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1229.031651121223</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>870.7659525144722</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>484.9776999162281</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3432.030640976333</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3100.967753632762</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>2748.199098362647</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>2374.733340101568</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>1984.594008125756</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507007</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>459.208530320493</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>459.208530320493</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>390.5117337136302</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488389</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488389</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="W16" t="n">
-        <v>898.7925182488389</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="X16" t="n">
-        <v>898.7925182488389</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="Y16" t="n">
-        <v>898.7925182488389</v>
+        <v>640.8569951507327</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
         <v>415.8104215925219</v>
@@ -5667,10 +5667,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1289.933130456009</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1035.248642250122</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>745.8314722131613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5995,13 +5995,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6080,10 +6080,10 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,7 +6241,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1284.682156601745</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1060.896741391251</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1060.896741391251</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1060.896741391251</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1060.896741391251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,16 +6703,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1397.022910750239</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1173.237495539745</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>884.1088567533034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>884.1088567533034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>594.6916867163428</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,13 +7025,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.509052552801</v>
+        <v>175.871927357574</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>175.871927357574</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>175.871927357574</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W40" t="n">
-        <v>643.4986034508183</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X40" t="n">
-        <v>415.509052552801</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.509052552801</v>
+        <v>357.5203921878137</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861153</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582084</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458727</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>401.5197597634796</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>254.6298122655692</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516355</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,13 +7669,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>176.8008973295492</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>48.10560617264125</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>43.65987261462453</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>62.45749068994772</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>243.633336958914</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>245.8351751800142</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>33.33990649915391</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>112.7691575445086</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.30500338171929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>119.4702800792788</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>198.9231251361218</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.4831809109881</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.60564437741826</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.29107270482878</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.1567728534019</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>79.34404369770283</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>95.7933895708003</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>97.04638377401685</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>68.56567510825387</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>175.9553136065864</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>10.65497486614709</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>26.93116351641913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522862</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522861</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>371509.2212626556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371509.2212626556</v>
+      </c>
+      <c r="G2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="F2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="G2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114797</v>
@@ -26337,19 +26337,19 @@
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="K2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114797</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659105</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965289</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26444,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386886.8516391224</v>
+        <v>-382452.7647401674</v>
       </c>
       <c r="C6" t="n">
-        <v>203081.0275754221</v>
+        <v>207515.114474377</v>
       </c>
       <c r="D6" t="n">
-        <v>203081.027575422</v>
+        <v>207515.114474377</v>
       </c>
       <c r="E6" t="n">
-        <v>-210164.5955607256</v>
+        <v>29086.19727040133</v>
       </c>
       <c r="F6" t="n">
-        <v>314995.4409161708</v>
+        <v>277232.9658892438</v>
       </c>
       <c r="G6" t="n">
-        <v>314995.4409161707</v>
+        <v>52109.68378400977</v>
       </c>
       <c r="H6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="I6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="J6" t="n">
-        <v>138572.2217235777</v>
+        <v>139449.3538573273</v>
       </c>
       <c r="K6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="L6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="M6" t="n">
-        <v>180194.4256823335</v>
+        <v>253419.5171602674</v>
       </c>
       <c r="N6" t="n">
-        <v>314995.4409161706</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="O6" t="n">
-        <v>314995.4409161707</v>
+        <v>246007.6882000089</v>
       </c>
       <c r="P6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26767,13 +26767,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708169</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708169</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708169</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>99.10841501723583</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.3902011122461</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.33174441270489</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>67.34219010766122</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>68.29072693268327</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>377.4642727362802</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>248.7689815793723</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>250.7532875461493</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36448,13 +36448,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
